--- a/WIP/Users/LucPT/FAP_TestViewpoint_PhotoManagement_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_PhotoManagement_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="192">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -989,9 +989,6 @@
     <t>1.2.1.5</t>
   </si>
   <si>
-    <t>Edit profile screen</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1095,10 +1092,6 @@
     <t>This post is deleted.</t>
   </si>
   <si>
-    <t>Check display:
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>Photo Management screen</t>
   </si>
   <si>
@@ -1161,6 +1154,19 @@
   </si>
   <si>
     <t>FAP_Software requirement specification_v1.0</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
+  </si>
+  <si>
+    <t>Input location in "Location" textbox</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Location that user input is displayed</t>
   </si>
 </sst>
 </file>
@@ -3184,6 +3190,27 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="198" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3201,27 +3228,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3619,6 +3625,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="685800"/>
+          <a:ext cx="4763165" cy="2972215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6302,7 +6357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -6322,14 +6377,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6344,57 +6399,57 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="C4" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="119" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
+      <c r="C5" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
+      <c r="C6" s="115" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6417,10 +6472,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="116"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6436,12 +6491,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="112"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6450,13 +6505,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6464,8 +6519,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6473,8 +6528,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6482,8 +6537,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6491,8 +6546,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6500,8 +6555,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6509,12 +6564,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6522,6 +6571,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6537,8 +6592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6659,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6728,10 +6783,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6759,7 +6814,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6789,7 +6844,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6808,7 +6863,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6820,10 +6875,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
@@ -6836,7 +6891,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6848,10 +6903,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>172</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
@@ -6864,7 +6919,7 @@
       <c r="E15" s="56"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6876,10 +6931,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" s="62" t="s">
         <v>141</v>
-      </c>
-      <c r="L15" s="62" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
@@ -6892,7 +6947,7 @@
       <c r="E16" s="56"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6904,10 +6959,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
@@ -6920,7 +6975,7 @@
       <c r="E17" s="56"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6932,23 +6987,23 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="62" t="s">
         <v>146</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6960,23 +7015,23 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="56"/>
       <c r="F19" s="62"/>
       <c r="G19" s="62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -6988,23 +7043,23 @@
         <v>37</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L19" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="56"/>
       <c r="F20" s="62"/>
       <c r="G20" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -7016,10 +7071,10 @@
         <v>37</v>
       </c>
       <c r="K20" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="62" t="s">
         <v>152</v>
-      </c>
-      <c r="L20" s="62" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
@@ -7031,7 +7086,7 @@
       <c r="D21" s="60"/>
       <c r="E21" s="61"/>
       <c r="F21" s="51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
@@ -7050,7 +7105,7 @@
       <c r="E22" s="56"/>
       <c r="F22" s="62"/>
       <c r="G22" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7062,10 +7117,10 @@
         <v>37</v>
       </c>
       <c r="K22" s="56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="46.5" customHeight="1">
@@ -7078,7 +7133,7 @@
       <c r="E23" s="56"/>
       <c r="F23" s="62"/>
       <c r="G23" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>35</v>
@@ -7090,23 +7145,23 @@
         <v>37</v>
       </c>
       <c r="K23" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="62" t="s">
         <v>141</v>
-      </c>
-      <c r="L23" s="62" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="56"/>
       <c r="F24" s="62"/>
       <c r="G24" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>35</v>
@@ -7118,23 +7173,23 @@
         <v>37</v>
       </c>
       <c r="K24" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L24" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="99"/>
       <c r="F25" s="100"/>
       <c r="G25" s="100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>35</v>
@@ -7146,23 +7201,23 @@
         <v>37</v>
       </c>
       <c r="K25" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="100" t="s">
         <v>146</v>
-      </c>
-      <c r="L25" s="100" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="99"/>
       <c r="F26" s="100"/>
       <c r="G26" s="100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7174,23 +7229,23 @@
         <v>37</v>
       </c>
       <c r="K26" s="99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L26" s="100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1" ht="69.75" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="99"/>
       <c r="F27" s="100"/>
       <c r="G27" s="100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7202,22 +7257,22 @@
         <v>37</v>
       </c>
       <c r="K27" s="99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L27" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="103"/>
       <c r="F28" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G28" s="104"/>
       <c r="H28" s="104"/>
@@ -7230,13 +7285,13 @@
       <c r="A29" s="47"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="99"/>
       <c r="F29" s="100"/>
       <c r="G29" s="100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>35</v>
@@ -7248,23 +7303,23 @@
         <v>37</v>
       </c>
       <c r="K29" s="99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L29" s="100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1" ht="39.75" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="49"/>
       <c r="C30" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="99"/>
       <c r="F30" s="100"/>
       <c r="G30" s="100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>35</v>
@@ -7276,10 +7331,10 @@
         <v>37</v>
       </c>
       <c r="K30" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="100" t="s">
         <v>166</v>
-      </c>
-      <c r="L30" s="100" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1">
@@ -8255,19 +8310,20 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="78" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
